--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4023.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4023.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.750918969350862</v>
+        <v>4.895781993865967</v>
       </c>
       <c r="B1">
-        <v>2.491593890753254</v>
+        <v>5.467911243438721</v>
       </c>
       <c r="C1">
-        <v>2.960163072250241</v>
+        <v>8.705711364746094</v>
       </c>
       <c r="D1">
-        <v>3.26325241479677</v>
+        <v>7.971055030822754</v>
       </c>
       <c r="E1">
-        <v>2.305854866842533</v>
+        <v>3.043112754821777</v>
       </c>
     </row>
   </sheetData>
